--- a/Daily_Team_Stats.xlsx
+++ b/Daily_Team_Stats.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
   <si>
     <t>ABFF Client Support</t>
   </si>
@@ -32,12 +32,18 @@
     <t>AMCN HIDIVE Client Support</t>
   </si>
   <si>
+    <t>AMC Sundance TV Client Support</t>
+  </si>
+  <si>
     <t>Anderlecht Client Support</t>
   </si>
   <si>
     <t>Blast TV Client Support</t>
   </si>
   <si>
+    <t>BroadwayHD Client Support</t>
+  </si>
+  <si>
     <t>Carlisle United Client Support</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>Feyenoord Client Support</t>
   </si>
   <si>
+    <t>FIH Client Support</t>
+  </si>
+  <si>
     <t>FIS Client Support</t>
   </si>
   <si>
@@ -167,6 +176,9 @@
     <t>ABFF Play</t>
   </si>
   <si>
+    <t>BroadwayHD</t>
+  </si>
+  <si>
     <t>Carlisle United TV</t>
   </si>
   <si>
@@ -186,6 +198,9 @@
   </si>
   <si>
     <t>SuperMotocross Video Pass</t>
+  </si>
+  <si>
+    <t>FIH</t>
   </si>
   <si>
     <t>Fever Direct</t>
@@ -583,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,22 +749,31 @@
       <c r="AV1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:51">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -803,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -824,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -839,46 +863,55 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>2</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
         <v>4</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -888,13 +921,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1039,151 +1072,169 @@
       <c r="AV1" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:51">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>29</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>2</v>
+      </c>
+      <c r="AR2">
+        <v>4</v>
+      </c>
+      <c r="AS2">
         <v>3</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>26</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>5</v>
-      </c>
-      <c r="AP2">
-        <v>2</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
       <c r="AT2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>6</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1193,194 +1244,206 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AC1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:32">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>93</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>11</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>78</v>
+      </c>
+      <c r="AA2">
+        <v>17</v>
+      </c>
+      <c r="AB2">
+        <v>12</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>81</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>74</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="X2">
-        <v>34</v>
-      </c>
-      <c r="Y2">
-        <v>12</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1390,194 +1453,206 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>85</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>30</v>
+      </c>
+      <c r="AA2">
         <v>65</v>
       </c>
-      <c r="S1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>8</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>51</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>4</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1595,22 +1670,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1621,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>0</v>

--- a/Daily_Team_Stats.xlsx
+++ b/Daily_Team_Stats.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>ABFF Client Support</t>
   </si>
@@ -119,6 +119,9 @@
     <t>Oilers Client Support</t>
   </si>
   <si>
+    <t>Pakistan Cricket Board Client Support</t>
+  </si>
+  <si>
     <t>PTO Client Support</t>
   </si>
   <si>
@@ -206,7 +209,7 @@
     <t>Fever Direct</t>
   </si>
   <si>
-    <t>Ligue 1</t>
+    <t>Ligue 1+</t>
   </si>
   <si>
     <t>Longhorn Network</t>
@@ -231,6 +234,9 @@
   </si>
   <si>
     <t>Oilers Plus</t>
+  </si>
+  <si>
+    <t>PCB Live</t>
   </si>
   <si>
     <t>Sky Sport Now</t>
@@ -598,13 +604,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,22 +764,25 @@
       <c r="AY1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -827,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -845,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -869,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -893,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -905,13 +914,16 @@
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -921,13 +933,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,31 +1093,34 @@
       <c r="AY1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1126,115 +1141,118 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>29</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>4</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
         <v>2</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>4</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>29</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>2</v>
-      </c>
-      <c r="AR2">
-        <v>4</v>
-      </c>
-      <c r="AS2">
-        <v>3</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>6</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1244,206 +1262,212 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>82</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>72</v>
       </c>
-      <c r="W1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>35</v>
+      </c>
+      <c r="AB2">
+        <v>25</v>
+      </c>
+      <c r="AC2">
         <v>11</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>4</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2">
-        <v>93</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>11</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>78</v>
-      </c>
-      <c r="AA2">
-        <v>17</v>
-      </c>
-      <c r="AB2">
-        <v>12</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1453,131 +1477,134 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1592,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1604,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1619,28 +1646,28 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1652,7 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1670,42 +1700,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Team_Stats.xlsx
+++ b/Daily_Team_Stats.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
   <si>
     <t>ABFF Client Support</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Newcastle United Client Support</t>
+  </si>
+  <si>
+    <t>NFL Domestic Client Support</t>
   </si>
   <si>
     <t>NHRA Client Support</t>
@@ -604,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,19 +770,22 @@
       <c r="AZ1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -854,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -908,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -923,7 +929,10 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -933,13 +942,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,19 +1105,22 @@
       <c r="AZ1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1120,50 +1132,50 @@
         <v>2</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
       <c r="W2">
         <v>1</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1183,62 +1195,62 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>4</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>39</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>2</v>
+      </c>
+      <c r="AU2">
         <v>3</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>29</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-      <c r="AT2">
-        <v>4</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
       <c r="AV2">
         <v>0</v>
       </c>
@@ -1246,13 +1258,16 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <v>1</v>
       </c>
       <c r="AZ2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1270,103 +1285,103 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1374,25 +1389,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1404,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1416,25 +1431,25 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1443,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>35</v>
+        <v>1428</v>
       </c>
       <c r="AB2">
-        <v>25</v>
+        <v>423</v>
       </c>
       <c r="AC2">
         <v>11</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1467,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1485,103 +1500,103 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1589,37 +1604,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1640,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1664,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1682,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1700,27 +1715,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1729,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
